--- a/assets/latest data/UVA Gro nutient requirements (3).xlsx
+++ b/assets/latest data/UVA Gro nutient requirements (3).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Cattle" sheetId="6" r:id="rId4"/>
     <sheet name="Buffalo" sheetId="5" r:id="rId5"/>
     <sheet name="Goat" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheep" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="43">
   <si>
     <t>BW (Kg)</t>
   </si>
@@ -136,15 +137,6 @@
     <t>animal</t>
   </si>
   <si>
-    <t>cattle</t>
-  </si>
-  <si>
-    <t>buffalo</t>
-  </si>
-  <si>
-    <t>goat</t>
-  </si>
-  <si>
     <t>bodyweight</t>
   </si>
   <si>
@@ -164,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
+  </si>
+  <si>
+    <t>Sheep</t>
   </si>
 </sst>
 </file>
@@ -277,13 +272,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +684,7 @@
   <dimension ref="A1:T230"/>
   <sheetViews>
     <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G81"/>
+      <selection activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +700,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2781,13 +2776,13 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -12110,7 +12105,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G2" sqref="G2:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12121,25 +12116,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12160,11 +12155,11 @@
         <v>15196.6</v>
       </c>
       <c r="F2" s="1">
-        <f>0.28*C2</f>
-        <v>2.5423238399999999</v>
+        <f>0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12184,11 +12179,11 @@
         <v>16487.2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F60" si="0">0.28*C3</f>
-        <v>2.7764144800000001</v>
+        <f t="shared" ref="F3:F66" si="0">0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12209,10 +12204,10 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>2.9563251200000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12233,10 +12228,10 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>3.0820557600000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12257,10 +12252,10 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>3.1536064000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12281,10 +12276,10 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>3.1709770399999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12305,10 +12300,10 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>3.13416768</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12329,10 +12324,10 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>3.04317832</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12353,10 +12348,10 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>2.8980089599999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12375,12 +12370,12 @@
       <c r="E11">
         <v>21649.599999999999</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>2.9395676800000001</v>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12399,12 +12394,12 @@
       <c r="E12">
         <v>22940.2</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3.1931989600000006</v>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12423,12 +12418,12 @@
       <c r="E13">
         <v>24230.799999999999</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3.39265024</v>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12447,12 +12442,12 @@
       <c r="E14">
         <v>25521.4</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3.5379215199999998</v>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12471,12 +12466,12 @@
       <c r="E15">
         <v>26811.999999999996</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3.6290127999999999</v>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12495,12 +12490,12 @@
       <c r="E16">
         <v>28102.6</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3.6659240799999995</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12519,12 +12514,12 @@
       <c r="E17">
         <v>29393.200000000001</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3.6486553600000007</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12543,12 +12538,12 @@
       <c r="E18">
         <v>30683.8</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>3.57720664</v>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12567,12 +12562,12 @@
       <c r="E19">
         <v>31974.400000000001</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3.451577920000001</v>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12593,10 +12588,10 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>3.6168115200000006</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -12617,10 +12612,10 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>3.88998344</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -12641,10 +12636,10 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>4.1089753600000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -12665,10 +12660,10 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>4.2737872799999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -12689,10 +12684,10 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>4.3844192000000008</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -12713,10 +12708,10 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>4.4408711200000006</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -12737,10 +12732,10 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>4.4431430400000007</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12761,10 +12756,10 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>4.3912349599999994</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,10 +12780,10 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>4.285146880000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -12807,12 +12802,12 @@
       <c r="E29">
         <v>34555.599999999999</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3.7340553600000006</v>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12831,12 +12826,12 @@
       <c r="E30">
         <v>35846.200000000004</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>4.0267679200000011</v>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -12855,12 +12850,12 @@
       <c r="E31">
         <v>37136.799999999996</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>4.2653004800000005</v>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12879,12 +12874,12 @@
       <c r="E32">
         <v>38427.400000000009</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4.4496530400000003</v>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12903,12 +12898,12 @@
       <c r="E33">
         <v>39718</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>4.5798256000000004</v>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12927,12 +12922,12 @@
       <c r="E34">
         <v>41008.6</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>4.6558181599999999</v>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12951,12 +12946,12 @@
       <c r="E35">
         <v>42299.199999999997</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4.6776307200000007</v>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12975,12 +12970,12 @@
       <c r="E36">
         <v>43589.799999999996</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4.6452632800000009</v>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12999,12 +12994,12 @@
       <c r="E37">
         <v>44880.4</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4.5587158400000014</v>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -13025,10 +13020,10 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>3.8512992000000006</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -13049,10 +13044,10 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>4.1635524000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -13073,10 +13068,10 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>4.4216256000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -13097,10 +13092,10 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>4.6255188</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -13121,10 +13116,10 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>4.7752320000000008</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -13145,10 +13140,10 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>4.8707652000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -13169,10 +13164,10 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>4.9121184000000016</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -13193,10 +13188,10 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>4.8992916000000006</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -13217,10 +13212,10 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>4.8322848000000009</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -13239,12 +13234,12 @@
       <c r="E47">
         <v>47461.599999999999</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4.2485430400000013</v>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -13263,12 +13258,12 @@
       <c r="E48">
         <v>48752.200000000004</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4.5803368800000008</v>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -13287,12 +13282,12 @@
       <c r="E49">
         <v>50042.799999999996</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>4.8579507199999998</v>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -13311,12 +13306,12 @@
       <c r="E50">
         <v>51333.4</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>5.0813845600000001</v>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -13335,12 +13330,12 @@
       <c r="E51">
         <v>52623.999999999993</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>5.2506384000000006</v>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -13359,12 +13354,12 @@
       <c r="E52">
         <v>53914.6</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>5.3657122400000006</v>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -13383,12 +13378,12 @@
       <c r="E53">
         <v>55205.2</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>5.42660608</v>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -13407,12 +13402,12 @@
       <c r="E54">
         <v>56495.799999999996</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>5.4333199199999997</v>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -13431,12 +13426,12 @@
       <c r="E55">
         <v>57786.400000000001</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>5.3858537599999998</v>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -13457,10 +13452,10 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>4.3657868799999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -13481,10 +13476,10 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>4.717121360000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13505,10 +13500,10 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>5.0142758399999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -13529,10 +13524,10 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>5.2572503199999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -13553,10 +13548,10 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>5.4460447999999992</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -13576,11 +13571,11 @@
         <v>60367.6</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ref="F61:F73" si="1">0.28*C61</f>
-        <v>5.5806592800000008</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -13600,11 +13595,11 @@
         <v>61658.200000000004</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>5.66109376</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -13624,11 +13619,11 @@
         <v>62948.799999999988</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6873482399999995</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -13648,11 +13643,11 @@
         <v>64239.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6594227200000002</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -13671,12 +13666,12 @@
       <c r="E65">
         <v>60367.6</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>4.4830307200000004</v>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -13695,12 +13690,12 @@
       <c r="E66">
         <v>61658.200000000004</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>4.8539058400000004</v>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -13719,12 +13714,12 @@
       <c r="E67">
         <v>62948.799999999988</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>5.1706009600000007</v>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F73" si="1">0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -13743,12 +13738,12 @@
       <c r="E68">
         <v>64239.4</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>5.4331160799999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -13767,12 +13762,12 @@
       <c r="E69">
         <v>65530</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>5.6414511999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -13791,12 +13786,12 @@
       <c r="E70">
         <v>66820.600000000006</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>5.7956063199999992</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -13815,12 +13810,12 @@
       <c r="E71">
         <v>68111.199999999997</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>5.8955814400000008</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -13839,12 +13834,12 @@
       <c r="E72">
         <v>69401.799999999988</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>5.9413765600000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -13863,12 +13858,12 @@
       <c r="E73">
         <v>70692.400000000009</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>5.9329916799999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -13881,7 +13876,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G2" sqref="G2:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13891,25 +13886,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13930,11 +13925,11 @@
         <v>16196.6</v>
       </c>
       <c r="F2" s="1">
-        <f>0.28*C2</f>
-        <v>2.5542812400000003</v>
+        <f>0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13954,11 +13949,11 @@
         <v>17487.2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F60" si="0">0.28*C3</f>
-        <v>2.7903647800000004</v>
+        <f t="shared" ref="F3:F66" si="0">0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13979,10 +13974,10 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>2.9722683200000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -14003,10 +13998,10 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>3.0999918599999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -14027,10 +14022,10 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>3.1735354000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -14051,10 +14046,10 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>3.1928989400000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14075,10 +14070,10 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>3.1580824800000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -14099,10 +14094,10 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>3.0690860199999994</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -14123,10 +14118,10 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>2.92590956</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -14145,12 +14140,12 @@
       <c r="E11">
         <v>22649.599999999999</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>2.9634824799999997</v>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -14169,12 +14164,12 @@
       <c r="E12">
         <v>23940.2</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>3.2210995600000007</v>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -14193,12 +14188,12 @@
       <c r="E13">
         <v>25230.799999999999</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>3.4245366400000004</v>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -14217,12 +14212,12 @@
       <c r="E14">
         <v>26521.4</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3.5737937199999998</v>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -14241,12 +14236,12 @@
       <c r="E15">
         <v>27811.999999999996</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3.6688708000000001</v>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -14265,12 +14260,12 @@
       <c r="E16">
         <v>29102.6</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>3.7097678799999994</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -14289,12 +14284,12 @@
       <c r="E17">
         <v>30393.200000000001</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>3.6964849600000003</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -14313,12 +14308,12 @@
       <c r="E18">
         <v>31683.8</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>3.6290220400000002</v>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -14337,12 +14332,12 @@
       <c r="E19">
         <v>32974.400000000001</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>3.5073791200000004</v>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -14363,10 +14358,10 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>3.6526837200000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -14387,10 +14382,10 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>3.9318343400000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -14411,10 +14406,10 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>4.1568049600000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -14435,10 +14430,10 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>4.3275955799999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -14459,10 +14454,10 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>4.4442062</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -14483,10 +14478,10 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>4.5066368199999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -14507,10 +14502,10 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>4.5148874399999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -14531,10 +14526,10 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>4.4689580600000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -14555,10 +14550,10 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>4.3688486800000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -14577,12 +14572,12 @@
       <c r="E29">
         <v>35555.599999999999</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3.7818849600000006</v>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -14601,12 +14596,12 @@
       <c r="E30">
         <v>36846.200000000004</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>4.0825691200000005</v>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -14625,12 +14620,12 @@
       <c r="E31">
         <v>38136.799999999996</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>4.3290732800000002</v>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -14649,12 +14644,12 @@
       <c r="E32">
         <v>39427.400000000009</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>4.5213974399999994</v>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -14673,12 +14668,12 @@
       <c r="E33">
         <v>40718</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>4.6595416000000007</v>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -14697,12 +14692,12 @@
       <c r="E34">
         <v>42008.6</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>4.7435057599999997</v>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -14721,12 +14716,12 @@
       <c r="E35">
         <v>43299.199999999997</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>4.7732899199999999</v>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -14745,12 +14740,12 @@
       <c r="E36">
         <v>44589.799999999996</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>4.7488940800000004</v>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -14769,12 +14764,12 @@
       <c r="E37">
         <v>45880.4</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>4.6703182400000012</v>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -14795,10 +14790,10 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
-        <v>3.9110862000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -14819,10 +14814,10 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
-        <v>4.2333039000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -14843,10 +14838,10 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
-        <v>4.5013415999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -14867,10 +14862,10 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
-        <v>4.7151993000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -14891,10 +14886,10 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
-        <v>4.8748769999999997</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -14915,10 +14910,10 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
-        <v>4.9803746999999987</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -14939,10 +14934,10 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" si="0"/>
-        <v>5.0316923999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -14963,10 +14958,10 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" si="0"/>
-        <v>5.0288301000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -14987,10 +14982,10 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
-        <v>4.9717877999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -15009,12 +15004,12 @@
       <c r="E47">
         <v>48461.599999999999</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>4.3202874400000004</v>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -15033,12 +15028,12 @@
       <c r="E48">
         <v>49752.200000000004</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>4.66403868</v>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -15057,12 +15052,12 @@
       <c r="E49">
         <v>51042.799999999996</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>4.9536099200000008</v>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -15081,12 +15076,12 @@
       <c r="E50">
         <v>52333.4</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>5.1890011600000001</v>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -15105,12 +15100,12 @@
       <c r="E51">
         <v>53623.999999999993</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>5.3702124000000007</v>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -15129,12 +15124,12 @@
       <c r="E52">
         <v>54914.6</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>5.4972436399999998</v>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -15153,12 +15148,12 @@
       <c r="E53">
         <v>56205.2</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>5.5700948800000001</v>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -15177,12 +15172,12 @@
       <c r="E54">
         <v>57495.799999999996</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>5.5887661200000007</v>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -15201,12 +15196,12 @@
       <c r="E55">
         <v>58786.400000000001</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>5.5532573599999999</v>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -15227,10 +15222,10 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
-        <v>4.44948868</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -15251,10 +15246,10 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
-        <v>4.8147734600000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -15275,10 +15270,10 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
-        <v>5.1258782400000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -15299,10 +15294,10 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="0"/>
-        <v>5.3828030200000008</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -15323,10 +15318,10 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="0"/>
-        <v>5.5855477999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -15346,11 +15341,11 @@
         <v>61367.6</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" ref="F61:F73" si="1">0.28*C61</f>
-        <v>5.7341125800000006</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -15370,11 +15365,11 @@
         <v>62658.200000000004</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8284973600000001</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -15394,11 +15389,11 @@
         <v>63948.799999999988</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8687021399999999</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -15418,11 +15413,11 @@
         <v>65239.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8547269200000009</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -15441,12 +15436,12 @@
       <c r="E65">
         <v>61367.6</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="1"/>
-        <v>4.5786899199999995</v>
+      <c r="F65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -15465,12 +15460,12 @@
       <c r="E66">
         <v>62658.200000000004</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="1"/>
-        <v>4.965508240000001</v>
+      <c r="F66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -15489,12 +15484,12 @@
       <c r="E67">
         <v>63948.799999999988</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="1"/>
-        <v>5.2981465600000019</v>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F73" si="1">0.28</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -15513,12 +15508,12 @@
       <c r="E68">
         <v>65239.4</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>5.5766048800000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -15537,12 +15532,12 @@
       <c r="E69">
         <v>66530</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>5.8008832000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -15561,12 +15556,12 @@
       <c r="E70">
         <v>67820.600000000006</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>5.9709815199999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -15585,12 +15580,12 @@
       <c r="E71">
         <v>69111.199999999997</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <f t="shared" si="1"/>
-        <v>6.0868998400000009</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -15609,12 +15604,12 @@
       <c r="E72">
         <v>70401.799999999988</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <f t="shared" si="1"/>
-        <v>6.1486381600000009</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -15633,12 +15628,12 @@
       <c r="E73">
         <v>71692.400000000009</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <f t="shared" si="1"/>
-        <v>6.1561964800000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -15650,8 +15645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15661,25 +15656,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -15700,11 +15695,11 @@
         <v>596.96</v>
       </c>
       <c r="F2" s="1">
-        <f>0.41*C2</f>
-        <v>9.8399999999999987E-2</v>
+        <f>0.41</f>
+        <v>0.41</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -15724,11 +15719,11 @@
         <v>671.57999999999993</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">0.41*C3</f>
-        <v>0.18859999999999996</v>
+        <f t="shared" ref="F3:F61" si="0">0.41</f>
+        <v>0.41</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -15749,10 +15744,10 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.27060000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -15773,10 +15768,10 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.34440000000000004</v>
+        <v>0.41</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -15800,7 +15795,7 @@
         <v>0.41</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15821,10 +15816,10 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.44280000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15845,10 +15840,10 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.48790000000000006</v>
+        <v>0.41</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -15869,10 +15864,10 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.52479999999999993</v>
+        <v>0.41</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -15893,10 +15888,10 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.55349999999999988</v>
+        <v>0.41</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -15916,16 +15911,16 @@
         <v>1343.1599999999999</v>
       </c>
       <c r="F11" s="1">
-        <f>0.41*C11</f>
-        <v>0.59039999999999992</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15939,12 +15934,12 @@
       <c r="E12">
         <v>2140</v>
       </c>
-      <c r="F12">
-        <f>0.41*C12</f>
-        <v>0.17629999999999998</v>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -15963,12 +15958,12 @@
       <c r="E13">
         <v>2720</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F61" si="1">0.41*C13</f>
-        <v>0.29519999999999996</v>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -15987,12 +15982,12 @@
       <c r="E14">
         <v>3230</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.40179999999999999</v>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -16011,12 +16006,12 @@
       <c r="E15">
         <v>3700</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.49609999999999993</v>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -16035,12 +16030,12 @@
       <c r="E16">
         <v>4140</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.58629999999999993</v>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -16059,12 +16054,12 @@
       <c r="E17">
         <v>4560</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0.67239999999999989</v>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -16083,12 +16078,12 @@
       <c r="E18">
         <v>4960</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0.75439999999999996</v>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -16107,12 +16102,12 @@
       <c r="E19">
         <v>5340</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>0.83229999999999982</v>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -16131,12 +16126,12 @@
       <c r="E20">
         <v>5720</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>0.91020000000000001</v>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -16155,12 +16150,12 @@
       <c r="E21">
         <v>6100</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0.98809999999999998</v>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -16180,11 +16175,11 @@
         <v>3420</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.20499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -16204,11 +16199,11 @@
         <v>4000</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -16228,11 +16223,11 @@
         <v>4510</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.61499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -16252,11 +16247,11 @@
         <v>4980</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>0.82</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -16276,11 +16271,11 @@
         <v>5420</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0249999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -16300,11 +16295,11 @@
         <v>5840</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>1.23</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -16324,11 +16319,11 @@
         <v>6240</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4349999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -16348,11 +16343,11 @@
         <v>6620</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>1.64</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -16372,11 +16367,11 @@
         <v>7000</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>1.845</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -16396,11 +16391,11 @@
         <v>7380</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -16419,12 +16414,12 @@
       <c r="E32">
         <v>4700</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="1"/>
-        <v>0.20499999999999999</v>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -16443,12 +16438,12 @@
       <c r="E33">
         <v>5280</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="1"/>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
         <v>0.41</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -16467,12 +16462,12 @@
       <c r="E34">
         <v>5790</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>0.61499999999999999</v>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -16491,12 +16486,12 @@
       <c r="E35">
         <v>6260</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="1"/>
-        <v>0.82</v>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -16515,12 +16510,12 @@
       <c r="E36">
         <v>6700</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="1"/>
-        <v>1.0249999999999999</v>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -16539,12 +16534,12 @@
       <c r="E37">
         <v>7120</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1.23</v>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -16563,12 +16558,12 @@
       <c r="E38">
         <v>7520</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="1"/>
-        <v>1.4349999999999998</v>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -16587,12 +16582,12 @@
       <c r="E39">
         <v>7900</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="1"/>
-        <v>1.64</v>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -16611,12 +16606,12 @@
       <c r="E40">
         <v>8280</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="1"/>
-        <v>1.845</v>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -16635,12 +16630,12 @@
       <c r="E41">
         <v>8660</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -16660,11 +16655,11 @@
         <v>5980</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>0.24599999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -16684,11 +16679,11 @@
         <v>6560</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>0.49199999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -16708,11 +16703,11 @@
         <v>7070</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>0.73799999999999988</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -16732,11 +16727,11 @@
         <v>7540</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98399999999999987</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -16756,11 +16751,11 @@
         <v>7980</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>1.23</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -16780,11 +16775,11 @@
         <v>8400</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4759999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -16804,11 +16799,11 @@
         <v>8800</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>1.722</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -16828,11 +16823,11 @@
         <v>9180</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9679999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -16852,11 +16847,11 @@
         <v>9560</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2139999999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -16876,11 +16871,11 @@
         <v>9940</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>2.46</v>
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -16899,12 +16894,12 @@
       <c r="E52">
         <v>7260</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0.28700000000000003</v>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -16923,12 +16918,12 @@
       <c r="E53">
         <v>7840</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
-        <v>0.57400000000000007</v>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -16947,12 +16942,12 @@
       <c r="E54">
         <v>8350</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
-        <v>0.86099999999999999</v>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -16971,12 +16966,12 @@
       <c r="E55">
         <v>8820</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="1"/>
-        <v>1.1480000000000001</v>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -16995,12 +16990,12 @@
       <c r="E56">
         <v>9260</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="1"/>
-        <v>1.4350000000000001</v>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -17019,12 +17014,12 @@
       <c r="E57">
         <v>9680</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="1"/>
-        <v>1.722</v>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -17043,12 +17038,12 @@
       <c r="E58">
         <v>10080</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="1"/>
-        <v>2.0089999999999999</v>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -17067,12 +17062,12 @@
       <c r="E59">
         <v>10460</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="1"/>
-        <v>2.2960000000000003</v>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -17091,12 +17086,12 @@
       <c r="E60">
         <v>10840</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="1"/>
-        <v>2.5830000000000002</v>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -17115,16 +17110,1498 @@
       <c r="E61">
         <v>11220</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="1"/>
-        <v>2.87</v>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>596.96</v>
+      </c>
+      <c r="F2" s="1">
+        <f>0.41</f>
+        <v>0.41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>93</v>
+      </c>
+      <c r="E3" s="1">
+        <v>671.57999999999993</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F61" si="0">0.41</f>
+        <v>0.41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="1">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1">
+        <v>746.19999999999993</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="D5" s="1">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1">
+        <v>820.82</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1">
+        <v>895.44</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="D7" s="1">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1">
+        <v>970.06000000000006</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.1900000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>153</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1119.3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="D9" s="1">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1193.92</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>173</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1268.5399999999997</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>183</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1343.1599999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.43</v>
+      </c>
+      <c r="D12">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>2140</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.72</v>
+      </c>
+      <c r="D13">
+        <v>93</v>
+      </c>
+      <c r="E13">
+        <v>2720</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.98</v>
+      </c>
+      <c r="D14">
+        <v>107</v>
+      </c>
+      <c r="E14">
+        <v>3230</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1.21</v>
+      </c>
+      <c r="D15">
+        <v>119</v>
+      </c>
+      <c r="E15">
+        <v>3700</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1.43</v>
+      </c>
+      <c r="D16">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>4140</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.64</v>
+      </c>
+      <c r="D17">
+        <v>142</v>
+      </c>
+      <c r="E17">
+        <v>4560</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>70</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1.84</v>
+      </c>
+      <c r="D18">
+        <v>153</v>
+      </c>
+      <c r="E18">
+        <v>4960</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>80</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D19">
+        <v>163</v>
+      </c>
+      <c r="E19">
+        <v>5340</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D20">
+        <v>173</v>
+      </c>
+      <c r="E20">
+        <v>5720</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2.41</v>
+      </c>
+      <c r="D21">
+        <v>183</v>
+      </c>
+      <c r="E21">
+        <v>6100</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>133</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3420</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>148</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4510</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>174</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4980</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>186</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5420</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>197</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5840</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>208</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6240</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>218</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6620</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>238</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7380</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>188</v>
+      </c>
+      <c r="E32">
+        <v>4700</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>203</v>
+      </c>
+      <c r="E33">
+        <v>5280</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>217</v>
+      </c>
+      <c r="E34">
+        <v>5790</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>229</v>
+      </c>
+      <c r="E35">
+        <v>6260</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>2.5</v>
+      </c>
+      <c r="D36">
+        <v>241</v>
+      </c>
+      <c r="E36">
+        <v>6700</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>252</v>
+      </c>
+      <c r="E37">
+        <v>7120</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3.5</v>
+      </c>
+      <c r="D38">
+        <v>263</v>
+      </c>
+      <c r="E38">
+        <v>7520</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>273</v>
+      </c>
+      <c r="E39">
+        <v>7900</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>4.5</v>
+      </c>
+      <c r="D40">
+        <v>283</v>
+      </c>
+      <c r="E40">
+        <v>8280</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>293</v>
+      </c>
+      <c r="E41">
+        <v>8660</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>243</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5980</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>258</v>
+      </c>
+      <c r="E43" s="1">
+        <v>6560</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="D44" s="1">
+        <v>272</v>
+      </c>
+      <c r="E44" s="1">
+        <v>7070</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>284</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7540</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>296</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7980</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D47" s="1">
+        <v>307</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8400</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>318</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8800</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>328</v>
+      </c>
+      <c r="E49" s="1">
+        <v>9180</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="D50" s="1">
+        <v>338</v>
+      </c>
+      <c r="E50" s="1">
+        <v>9560</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>348</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9940</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="D52">
+        <v>298</v>
+      </c>
+      <c r="E52">
+        <v>7260</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D53">
+        <v>313</v>
+      </c>
+      <c r="E53">
+        <v>7840</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>2.1</v>
+      </c>
+      <c r="D54">
+        <v>327</v>
+      </c>
+      <c r="E54">
+        <v>8350</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>40</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="D55">
+        <v>339</v>
+      </c>
+      <c r="E55">
+        <v>8820</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="D56">
+        <v>351</v>
+      </c>
+      <c r="E56">
+        <v>9260</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>4.2</v>
+      </c>
+      <c r="D57">
+        <v>362</v>
+      </c>
+      <c r="E57">
+        <v>9680</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D58">
+        <v>373</v>
+      </c>
+      <c r="E58">
+        <v>10080</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="D59">
+        <v>383</v>
+      </c>
+      <c r="E59">
+        <v>10460</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>90</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="D60">
+        <v>393</v>
+      </c>
+      <c r="E60">
+        <v>10840</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D61">
+        <v>403</v>
+      </c>
+      <c r="E61">
+        <v>11220</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/latest data/UVA Gro nutient requirements (3).xlsx
+++ b/assets/latest data/UVA Gro nutient requirements (3).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="44">
   <si>
     <t>bodyweight</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>CP required (g)</t>
+  </si>
+  <si>
+    <t>cp % of dmi</t>
   </si>
 </sst>
 </file>
@@ -885,7 +888,9 @@
   </sheetPr>
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9496,7 +9501,7 @@
   </sheetPr>
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="69" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16764,10 +16769,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:G73"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16779,7 +16784,7 @@
     <col min="7" max="7" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16801,8 +16806,11 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>300</v>
       </c>
@@ -16825,8 +16833,12 @@
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>(D2/C2)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>350</v>
       </c>
@@ -16850,7 +16862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>400</v>
       </c>
@@ -16874,7 +16886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>450</v>
       </c>
@@ -16898,7 +16910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>500</v>
       </c>
@@ -16922,7 +16934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>550</v>
       </c>
@@ -16946,7 +16958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>600</v>
       </c>
@@ -16970,7 +16982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>650</v>
       </c>
@@ -16994,7 +17006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>700</v>
       </c>
@@ -17018,7 +17030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>300</v>
       </c>
@@ -17042,7 +17054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>350</v>
       </c>
@@ -17066,7 +17078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>400</v>
       </c>
@@ -17090,7 +17102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>450</v>
       </c>
@@ -17114,7 +17126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>500</v>
       </c>
@@ -17138,7 +17150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>550</v>
       </c>
